--- a/Documentation/GarbageGo-Documents.xlsx
+++ b/Documentation/GarbageGo-Documents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GarbageGo\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58761FCA-A9FF-40BE-AFE1-6F1F549EE15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B6190C-7D19-4856-8CDC-4038F890E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="90" windowWidth="21600" windowHeight="11295" xr2:uid="{BC122A24-5320-45C8-8359-A3997EAF9377}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t xml:space="preserve">                                          GarbageGo</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Assigned Push</t>
+  </si>
+  <si>
+    <t>Add Minutes Form</t>
+  </si>
+  <si>
+    <t>Add the Resident in our user</t>
   </si>
 </sst>
 </file>
@@ -201,8 +207,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +222,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23672EAE-6729-4114-99CB-18D5B522E812}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,48 +555,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -610,7 +616,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -630,7 +636,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -650,7 +656,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -670,7 +676,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -690,15 +696,27 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -706,7 +724,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -714,7 +732,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -722,7 +740,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -730,7 +748,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -738,7 +756,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -746,7 +764,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -754,7 +772,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -762,7 +780,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -770,7 +788,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -778,9 +796,9 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="A20" s="5"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/GarbageGo-Documents.xlsx
+++ b/Documentation/GarbageGo-Documents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GarbageGo\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B6190C-7D19-4856-8CDC-4038F890E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598DBC4D-8EB3-4E89-A4D9-922DECA73D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="90" windowWidth="21600" windowHeight="11295" xr2:uid="{BC122A24-5320-45C8-8359-A3997EAF9377}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t xml:space="preserve">                                          GarbageGo</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Add the Resident in our user</t>
+  </si>
+  <si>
+    <t>Alvarez, Urge</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +675,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
